--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/10/seed2/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.994100000000006</v>
+        <v>5.898600000000007</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>15.80709999999999</v>
+        <v>15.8146</v>
       </c>
     </row>
     <row r="4">
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.374200000000004</v>
+        <v>9.456800000000003</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.007500000000004</v>
+        <v>9.2232</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.6594</v>
+        <v>16.5583</v>
       </c>
     </row>
     <row r="25">
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.264999999999998</v>
+        <v>6.0989</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.715300000000008</v>
+        <v>-8.814300000000005</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.775100000000011</v>
+        <v>-8.782700000000006</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.1106</v>
+        <v>-8.062899999999999</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.307099999999997</v>
+        <v>-7.356499999999998</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.607399999999997</v>
+        <v>-7.591299999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.8034</v>
+        <v>-7.784399999999998</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.829799999999998</v>
+        <v>5.759599999999998</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.302899999999996</v>
+        <v>-8.318199999999996</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.895599999999998</v>
+        <v>-7.9644</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1400,16 +1400,16 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.841199999999994</v>
+        <v>4.999399999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.313600000000001</v>
+        <v>-8.541399999999992</v>
       </c>
       <c r="E57" t="n">
-        <v>16.6462</v>
+        <v>16.6038</v>
       </c>
     </row>
     <row r="58">
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.901499999999998</v>
+        <v>4.865999999999999</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.55880000000001</v>
+        <v>16.4966</v>
       </c>
     </row>
     <row r="62">
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.392899999999994</v>
+        <v>5.385399999999995</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.13450000000001</v>
+        <v>17.1085</v>
       </c>
     </row>
     <row r="71">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.6837</v>
+        <v>-7.720499999999998</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>8.859500000000004</v>
+        <v>9.129400000000002</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.400799999999996</v>
+        <v>5.294999999999996</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.69040000000001</v>
+        <v>16.71110000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.853300000000002</v>
+        <v>-5.731200000000001</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-8.049799999999998</v>
+        <v>-8.030799999999999</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.444500000000002</v>
+        <v>5.731100000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.6433</v>
+        <v>15.5165</v>
       </c>
     </row>
     <row r="99">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.83290000000001</v>
+        <v>16.84460000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.55539999999998</v>
+        <v>16.68259999999998</v>
       </c>
     </row>
   </sheetData>
